--- a/biology/Botanique/Leucothoe/Leucothoe.xlsx
+++ b/biology/Botanique/Leucothoe/Leucothoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucothoe est un genre de plantes à fleurs dicotylédones de la famille des Ericaceae et de la sous-famille des Vaccinioideae, originaire d'Amérique du Nord et d'Asie de l'Est, qui comprend une dizaine d'espèces acceptées (seulement 5 à 6 selon certains auteurs).
 Ce sont des arbustes pouvant atteindre 3 mètres de haut, rhizomateux, aux feuilles persistantes, coriaces, luisantes.
-Les espèces de ce genre contiennent des composés diterpénoïdes, les grayanotoxines, toxiques pour l'homme et les animaux d'élevage[2].
-Certaines espèces sont cultivées pour la qualité ornementale de leur feuillage et de leur floraison. De nombreux cultivars de Leucothoe fontanesiana et Leucothoe axillaris ont été sélectionnés depuis les années 1950[3].
+Les espèces de ce genre contiennent des composés diterpénoïdes, les grayanotoxines, toxiques pour l'homme et les animaux d'élevage.
+Certaines espèces sont cultivées pour la qualité ornementale de leur feuillage et de leur floraison. De nombreux cultivars de Leucothoe fontanesiana et Leucothoe axillaris ont été sélectionnés depuis les années 1950.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Leucothoe » est le nom en grec ancien d'une princesse,  Leukothéa (Λευκοθέα), fille d'Orchame, roi de Babylone, qui fut changée en arbre par Appolon, et le nom de cet arbre non identifié sur le plan botanique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Leucothoe » est le nom en grec ancien d'une princesse,  Leukothéa (Λευκοθέα), fille d'Orchame, roi de Babylone, qui fut changée en arbre par Appolon, et le nom de cet arbre non identifié sur le plan botanique.
 </t>
         </is>
       </c>
@@ -545,15 +559,17 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Leucothoe sont des arbustes à feuilles persistantes, à rhizomes souterrains horizontaux, et aux branches généralement retombantes, plus ou moins arquées (mais dressées chez Leucothoe davisiae). Les branches présentent une moëlle sans diaphragmes, du type Calluna (mais hétérogène chez L. davisiae).
 Les rameaux sont plus ou moins térètes (cylindriques), avec des poils glanduleux épars (absents chez Leucothoe keiskei), ou glabres à modérément pubescents. Les bourgeons, ovales à coniques ou subhémisphériques, sont généralement protégés par 4 écailles (ou plus) imbriquées, glabres, aux marges entières à érodées. 
-Les feuilles, alternes, simples, pétiolées sans stipules, coriaces à très coriaces, plates, vert foncé et brillant à la face supérieure et ternes et plus claires à la face inférieure, avec des poils multicellulaires, à tête glandulaire épars sur la face abaxiale, mais absents sur la face adaxiale. Les bords sont plus ou moins nettement serrés (dentelés), la nervation brochidodrome avec nervure médiane proéminente et nervures tertiaires réticulées. Le faisceau vasculaire du pétiole est unifacial[5],[3].
+Les feuilles, alternes, simples, pétiolées sans stipules, coriaces à très coriaces, plates, vert foncé et brillant à la face supérieure et ternes et plus claires à la face inférieure, avec des poils multicellulaires, à tête glandulaire épars sur la face abaxiale, mais absents sur la face adaxiale. Les bords sont plus ou moins nettement serrés (dentelés), la nervation brochidodrome avec nervure médiane proéminente et nervures tertiaires réticulées. Le faisceau vasculaire du pétiole est unifacial,.
 Les inflorescences axillaires, sont des grappes (racème). 
 Les fleurs, à symétrie pentamère, présentent un calice à lobes courts, et une corolle blanche, urcéolée à tubulaire, avec des lobes recourbés, courts. Les étamines sont beaucoup plus courtes que le tube de la corolle, et présentent des filaments droits, aplatis, et des anthères oblongues, les thèques séparées au-dessus, s'ouvrant chacune par un pore terminal et avec une arête élancée. L'ovaire, supère, est glabre, avec de nombreux ovules par loge. Le stigmate, capité, présente  cinq lobes. 
 Le fruit est une capsule loculicide, globuleuse déprimée. 
-Les graines aplaties, anguleuses, présentent une testa lisse, brillante, réticulée[5].
+Les graines aplaties, anguleuses, présentent une testa lisse, brillante, réticulée.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle comprend plusieurs aires disjointe d'une part en Amérique du Nord, d'autre part en Asie de l'Est. Aux États-Unis, on trouve trois espèces présentes d'une part dans le Sud-Est du pays (piémont des Appalaches et plaines côtières de la Virginie à la Louisiane), deux espèces Leucothoe axillaris et Leucothoe fontanesiana, et dans l'Ouest (Oregon et Californie), une espèce, Leucothoe davisiae. En Asie, deux espèces sont présentes : Leucothoe keiskei dans l'île de Honshū (Japon), et Leucothoe griffithiana, dans la chaîne de l'Himalaya (Bhoutan, Nord-Ouest de l'Inde, Birmanie, Sud-Ouest de la Chine, Laos et Viêt Nam)[3],[6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle comprend plusieurs aires disjointe d'une part en Amérique du Nord, d'autre part en Asie de l'Est. Aux États-Unis, on trouve trois espèces présentes d'une part dans le Sud-Est du pays (piémont des Appalaches et plaines côtières de la Virginie à la Louisiane), deux espèces Leucothoe axillaris et Leucothoe fontanesiana, et dans l'Ouest (Oregon et Californie), une espèce, Leucothoe davisiae. En Asie, deux espèces sont présentes : Leucothoe keiskei dans l'île de Honshū (Japon), et Leucothoe griffithiana, dans la chaîne de l'Himalaya (Bhoutan, Nord-Ouest de l'Inde, Birmanie, Sud-Ouest de la Chine, Laos et Viêt Nam),. 
 </t>
         </is>
       </c>
@@ -613,17 +631,89 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Leucothoe a été créé par le botaniste britannique David Don et publié dans le Edinburgh New Philosophical Journal en 1834[7].
-Synonymes
-Selon Plants of the World online (POWO)                (17 mars 2007)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Leucothoe a été créé par le botaniste britannique David Don et publié dans le Edinburgh New Philosophical Journal en 1834.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leucothoe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leucothoe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (17 mars 2007) :
 Cassandra Spach
 Cassiphone Rchb.
 Oreocallis Small
 Paraleucothoe (Nakai) Honda
-Liste d'espèces
-Selon The Plant List            (10 octobre 2020)[9] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leucothoe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leucothoe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (10 octobre 2020) :
 Leucothoe acuminata (Aiton) G. Don
 Leucothoe axillaris (Lam.) D. Don
 Leucothoe catesbaei (Walter) A. Gray
@@ -633,7 +723,7 @@
 Leucothoe grayana Maxim.
 Leucothoe griffithiana C.B. Clarke
 Leucothoe tonkinensis Dop
-Selon Plants of the World online (POWO)                (11 octobre 2020)[6] :
+Selon Plants of the World online (POWO)                (11 octobre 2020) :
 Leucothoe axillaris (Lam.) D. Don
 Leucothoe davisiae Torr. ex A. Gray
 Leucothoe fontanesiana (Steud.) Sleumer
@@ -643,31 +733,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Leucothoe</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leucothoe</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Plante ornementale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fleurit en mai, aime l'ombre et la mi-ombre. Intéressant pour son feuillage lustré en spirale, un zeste envoutant[style à revoir] tel que la variété Leucothoe axillaris 'Curly Red'. 
 Le feuillage est persistant. Les Leucothoe peuvent s'associer avec les plantes de terre de bruyère, ils préfèrent les sols acides.
